--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,110 +458,118 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4437817539381101</v>
+        <v>0.1979352757448672</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001957741293640418</v>
+        <v>9.160753833599147e-20</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3655834904383549</v>
+        <v>0.1153160238897369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02281076252770868</v>
+        <v>3.764781163343664e-05</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3201221909881969</v>
+        <v>0.1143833700147324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21811399699413</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>3.298720936481301e-72</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2318517953127711</v>
+        <v>0.08701439444143368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1161031543217969</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.04276979792223077</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2061388394607626</v>
+        <v>0.07643623722145677</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06458436228012394</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>2.168531495601072e-05</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1523082842991429</v>
+        <v>0.06549376249122302</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00214290180516142</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.07274260098886136</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1490279661153788</v>
+        <v>0.04291182645101244</v>
       </c>
       <c r="C8" t="n">
-        <v>1.182852722936977e-26</v>
+        <v>1.189707024628047e-05</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,142 +580,144 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09457196922150513</v>
+        <v>0.04166242001581517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3475922848351793</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>5.018415515235993e-06</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07639973165201054</v>
+        <v>0.02709685930369226</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002109874920845565</v>
+        <v>0.03387685921582444</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07590855264711627</v>
+        <v>0.02278917526674226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002235288552133157</v>
+        <v>0.0006337056534006235</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05921519051797561</v>
+        <v>0.01358123113036901</v>
       </c>
       <c r="C12" t="n">
-        <v>1.121747628499107e-05</v>
+        <v>0.03783848675461584</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03726330692595484</v>
+        <v>0.0135156281733233</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000405969100503761</v>
+        <v>0.03810147994673349</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03410136262493729</v>
+        <v>6.379999992880275e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4703049280127405</v>
+        <v>0.9949189354439006</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01734034019493916</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.6308195454929839</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01223221143878352</v>
+        <v>-0.001865664999141044</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4251856400807504</v>
+        <v>0.8565592472913606</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01147975249210646</v>
+        <v>-0.007723268206884841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8293300112012433</v>
+        <v>0.411975201555473</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
@@ -718,306 +728,140 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008286913247068706</v>
+        <v>-0.007800722631008727</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5776753121886464</v>
+        <v>0.3354321522055302</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.00731240316352084</v>
+        <v>-0.009506239529824847</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8596347102452353</v>
+        <v>0.2525829276389358</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004479677049498843</v>
+        <v>-0.009753930886181893</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6484289779177672</v>
+        <v>0.9075886262256719</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>-0.04108427377560822</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.06605536562274576</v>
+      </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.01019510731789605</v>
+        <v>-0.05016430698351784</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8386875630809558</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.04421004840783572</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.01122700682273465</v>
+        <v>-0.06873271193257538</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8040209295455931</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0.001450067207535299</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.01184263456523307</v>
+        <v>-0.07659234052439148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5867991819960861</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.01081287640539172</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02089934824009101</v>
+        <v>-0.1022749633467718</v>
       </c>
       <c r="C25" t="n">
-        <v>0.273819247561465</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>4.060199689322854e-37</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.04963032069308284</v>
+        <v>-0.119264312719064</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1442511126621269</v>
+        <v>0.2491758916945146</v>
       </c>
       <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Model Name_FOCF</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.06422178558131134</v>
-      </c>
-      <c r="C27" t="n">
-        <v>2.387377291814037e-06</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Gini Item</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.0659268140620022</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.001053823200172901</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.06736287653317657</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1562397877722976</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.06751683177212223</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.08870392121156351</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Kurtosis of Rating</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.0717857316656266</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.09615084201842501</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.08480630840375994</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.000109427500829966</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Rating</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.09792737045114724</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.05295765505875536</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Skewness of Rating</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.1199473294307115</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01783533446712552</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-0.160556716933984</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.05432972870343377</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>-0.2495583158478675</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.1434354193091048</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ndcg@5</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>-0.4221987065388311</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.0763355168357109</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>-0.4701425508043972</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.05436346822928765</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,14 +458,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4530000000000005</v>
+        <v>0.2427927580936384</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.378184203510355e-25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,32 +476,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.522560269672795e-16</v>
+        <v>0.2139540583886624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2023780047913085</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>2.760439086358574e-20</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.811323644522304e-16</v>
+        <v>0.2117084844458111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03869868921389133</v>
+        <v>7.938966056305479e-50</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -512,192 +516,220 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>0.1366905487625105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01696068190859571</v>
+        <v>4.422097160746366e-13</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0.1184434896451408</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02368281303672244</v>
+        <v>2.747537373674552e-06</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.232725281383409e-16</v>
+        <v>0.1140580060977555</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1764926788092537</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>9.690939524990719e-10</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.608224830031759e-16</v>
+        <v>0.1026507511473019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4199595704726872</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>3.43562718220049e-78</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.532696274926138e-16</v>
+        <v>0.06251756767561392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03214567553445502</v>
+        <v>0.0001345451692438948</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.95590071916385e-16</v>
+        <v>0.04694517815411609</v>
       </c>
       <c r="C10" t="n">
-        <v>0.43298980076659</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.001515892830332539</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.52655665885959e-16</v>
+        <v>0.04282025589843197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4516754956105316</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>1.658634827098603e-17</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.144917494144693e-16</v>
+        <v>0.0293577327047043</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4659963901519076</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>0.01397062392813674</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.326672684688674e-17</v>
+        <v>0.01658118699539279</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4043941231095659</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.002503757312647134</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.938893903907228e-17</v>
+        <v>0.01603448848177134</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7170489152329473</v>
+        <v>0.5974457964370105</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0.01277654570931118</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7766837018716044</v>
+        <v>0.1130173148079022</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>-0.003145097103317495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4979553266528808</v>
+        <v>0.5102765010797522</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>-0.03315983497090916</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7234396321901178</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.007943787406610111</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -706,202 +738,102 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.03566705959510183</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.1725441944225758</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-3.469446951953614e-17</v>
+        <v>-0.06395232349412246</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9363956677824026</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>2.232340138085049e-05</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.586881206085195e-17</v>
+        <v>-0.1129681772377123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.577843446626108</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>3.72045877105245e-85</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.318389841742373e-16</v>
+        <v>-0.1450464998115165</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7293953779413612</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>1.171141825739817e-11</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.804112415015879e-16</v>
+        <v>-0.1684783413061179</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186009135378904</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>6.747184607879148e-11</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.255140518769849e-16</v>
+        <v>-0.2673928954252174</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1464575273174205</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Average Popularity</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-2.498001805406602e-16</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.6791516766896901</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-2.706168622523819e-16</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.47908357740913</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-3.33066907387547e-16</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5020536395270276</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-3.747002708109903e-16</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.16987355112413</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>popularitypercentage@5</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-3.781697177629439e-16</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.03633369414698873</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-4.302114220422482e-16</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2675882646279165</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Gini User</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-4.85722573273506e-16</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03395603971193649</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-1.165734175856414e-15</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.1938915750520048</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>1.222371556945394e-15</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2427927580936384</v>
+        <v>84706664631.60715</v>
       </c>
       <c r="C2" t="n">
-        <v>7.378184203510355e-25</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328749129</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2139540583886624</v>
+        <v>53624302471.0119</v>
       </c>
       <c r="C3" t="n">
-        <v>2.760439086358574e-20</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328739208</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2117084844458111</v>
+        <v>53624302470.81418</v>
       </c>
       <c r="C4" t="n">
-        <v>7.938966056305479e-50</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328757046</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1366905487625105</v>
+        <v>36065971232.47549</v>
       </c>
       <c r="C5" t="n">
-        <v>4.422097160746366e-13</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328736217</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1184434896451408</v>
+        <v>36065971232.41137</v>
       </c>
       <c r="C6" t="n">
-        <v>2.747537373674552e-06</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328744761</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1140580060977555</v>
+        <v>36065971232.27232</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690939524990719e-10</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328763304</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1026507511473019</v>
+        <v>0.3611787595997898</v>
       </c>
       <c r="C8" t="n">
-        <v>3.43562718220049e-78</v>
+        <v>2.439113517521793e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,14 +560,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06251756767561392</v>
+        <v>0.1653105846406115</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001345451692438948</v>
+        <v>4.137688814181539e-14</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -602,32 +578,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04694517815411609</v>
+        <v>0.1622374904347077</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001515892830332539</v>
+        <v>5.613185253902093e-36</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04282025589843197</v>
+        <v>0.144734667001142</v>
       </c>
       <c r="C11" t="n">
-        <v>1.658634827098603e-17</v>
+        <v>1.795215452689901e-08</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -638,166 +614,158 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0293577327047043</v>
+        <v>0.1073623721816882</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01397062392813674</v>
+        <v>8.458890267705426e-09</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01658118699539279</v>
+        <v>0.08424830898273733</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002503757312647134</v>
+        <v>0.0002008344987773918</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01603448848177134</v>
+        <v>0.06282608963661859</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5974457964370105</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.01351670133368306</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01277654570931118</v>
+        <v>0.03599278758833539</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1130173148079022</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>1.157758236526703e-05</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003145097103317495</v>
+        <v>0.01274090584785793</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5102765010797522</v>
+        <v>0.6241856189745869</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03315983497090916</v>
+        <v>0.003988850742294936</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007943787406610111</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8925868562250086</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03566705959510183</v>
+        <v>0.001826795515513589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1725441944225758</v>
+        <v>0.8917698779097741</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.06395232349412246</v>
+        <v>-0.0001826032283298376</v>
       </c>
       <c r="C19" t="n">
-        <v>2.232340138085049e-05</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9888415165931638</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.1129681772377123</v>
+        <v>-0.02392638819539071</v>
       </c>
       <c r="C20" t="n">
-        <v>3.72045877105245e-85</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3759618951212313</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.1450464998115165</v>
+        <v>-0.03959297331765606</v>
       </c>
       <c r="C21" t="n">
-        <v>1.171141825739817e-11</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.285491610878516</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,10 +774,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1684783413061179</v>
+        <v>-0.118775232011679</v>
       </c>
       <c r="C22" t="n">
-        <v>6.747184607879148e-11</v>
+        <v>8.767072387047657e-07</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -824,16 +792,44 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.2673928954252174</v>
+        <v>-0.2031258716578202</v>
       </c>
       <c r="C23" t="n">
-        <v>1.222371556945394e-15</v>
+        <v>7.95896344323311e-10</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-174396938335.0989</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3584065328743249</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-174396938335.1037</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.358406532874312</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84706664631.60715</v>
+        <v>75379946751.35321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3584065328749129</v>
+        <v>0.3351716237564629</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53624302471.0119</v>
+        <v>45696011154.2886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3584065328739208</v>
+        <v>0.3351716237551459</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53624302470.81418</v>
+        <v>45696011154.05704</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3584065328757046</v>
+        <v>0.3351716237576106</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36065971232.47549</v>
+        <v>30641407569.01118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3584065328736217</v>
+        <v>0.3351716237549737</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36065971232.41137</v>
+        <v>30641407568.94719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3584065328744761</v>
+        <v>0.3351716237559826</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,10 +532,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36065971232.27232</v>
+        <v>30641407568.80829</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3584065328763304</v>
+        <v>0.3351716237581744</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3611787595997898</v>
+        <v>0.3566229284915785</v>
       </c>
       <c r="C8" t="n">
-        <v>2.439113517521793e-07</v>
+        <v>4.154539329505786e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,14 +560,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1653105846406115</v>
+        <v>0.1543708092456756</v>
       </c>
       <c r="C9" t="n">
-        <v>4.137688814181539e-14</v>
+        <v>2.067497726502384e-33</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1622374904347077</v>
+        <v>0.148978005590138</v>
       </c>
       <c r="C10" t="n">
-        <v>5.613185253902093e-36</v>
+        <v>4.372353929589953e-12</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -596,14 +596,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.144734667001142</v>
+        <v>0.1210362599382468</v>
       </c>
       <c r="C11" t="n">
-        <v>1.795215452689901e-08</v>
+        <v>5.483852802460551e-11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -614,14 +614,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1073623721816882</v>
+        <v>0.07794386401236721</v>
       </c>
       <c r="C12" t="n">
-        <v>8.458890267705426e-09</v>
+        <v>2.12408353921869e-05</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -632,82 +632,74 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08424830898273733</v>
+        <v>0.04598340662077555</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0002008344987773918</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0947371592810982</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.06282608963661859</v>
+        <v>0.03483916334042636</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01351670133368306</v>
+        <v>2.485530110539469e-05</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03599278758833539</v>
+        <v>0.01706642642713729</v>
       </c>
       <c r="C15" t="n">
-        <v>1.157758236526703e-05</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5143832342066351</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01274090584785793</v>
+        <v>0.01669495574443184</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6241856189745869</v>
+        <v>0.4549710679346063</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003988850742294936</v>
+        <v>0.01211186835689744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8925868562250086</v>
+        <v>0.3412956006114056</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
@@ -718,66 +710,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.001826795515513589</v>
+        <v>-0.01833247103554086</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8917698779097741</v>
+        <v>0.1392454631375796</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0001826032283298376</v>
+        <v>-0.02331394357689807</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9888415165931638</v>
+        <v>0.3918722328884459</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02392638819539071</v>
+        <v>-0.02374716924613215</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3759618951212313</v>
+        <v>0.5220130676827623</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.03959297331765606</v>
+        <v>-0.07085697827066822</v>
       </c>
       <c r="C21" t="n">
-        <v>0.285491610878516</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.0005390704816672743</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.118775232011679</v>
+        <v>-0.1658755883865336</v>
       </c>
       <c r="C22" t="n">
-        <v>8.767072387047657e-07</v>
+        <v>1.540294688654439e-07</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -788,48 +784,30 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.2031258716578202</v>
+        <v>-151717365474.6187</v>
       </c>
       <c r="C23" t="n">
-        <v>7.95896344323311e-10</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3351716237558678</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-174396938335.0989</v>
+        <v>-151717365474.6238</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3584065328743249</v>
+        <v>0.3351716237558523</v>
       </c>
       <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-174396938335.1037</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.358406532874312</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
+++ b/evaluation/fairness_measure_based/OLS_Regression_Feature_Analysis_Overestimation_Unfairness_of_sensitive_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,98 +458,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75379946751.35321</v>
+        <v>0.2809595208400512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3351716237564629</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>0.0009318548734194018</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45696011154.2886</v>
+        <v>0.1503339900643861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3351716237551459</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>6.143361610142753e-21</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45696011154.05704</v>
+        <v>0.1339370886492275</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3351716237576106</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>2.593142508687494e-07</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30641407569.01118</v>
+        <v>0.1198282330993105</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3351716237549737</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>9.232404203616297e-08</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30641407568.94719</v>
+        <v>0.1040893371548686</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3351716237559826</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>3.137322534301756e-06</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30641407568.80829</v>
+        <v>0.06811361491630952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3351716237581744</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.03890783117430289</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3566229284915785</v>
+        <v>0.05095606694247632</v>
       </c>
       <c r="C8" t="n">
-        <v>4.154539329505786e-07</v>
+        <v>4.938469552821116e-15</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,254 +584,208 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1543708092456756</v>
+        <v>0.04952294379931693</v>
       </c>
       <c r="C9" t="n">
-        <v>2.067497726502384e-33</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2670638963708146</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.148978005590138</v>
+        <v>0.04818394101441462</v>
       </c>
       <c r="C10" t="n">
-        <v>4.372353929589953e-12</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.197913365641521</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1210362599382468</v>
+        <v>0.02938939754241546</v>
       </c>
       <c r="C11" t="n">
-        <v>5.483852802460551e-11</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3543263937215796</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07794386401236721</v>
+        <v>0.01610090106588837</v>
       </c>
       <c r="C12" t="n">
-        <v>2.12408353921869e-05</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2877783741579483</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04598340662077555</v>
+        <v>0.01311201678266867</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0947371592810982</v>
+        <v>0.6250230895703482</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03483916334042636</v>
+        <v>-0.01665518640708223</v>
       </c>
       <c r="C14" t="n">
-        <v>2.485530110539469e-05</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.263667599191738</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01706642642713729</v>
+        <v>-0.02143231889816992</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5143832342066351</v>
+        <v>0.5121331404872325</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01669495574443184</v>
+        <v>-0.04310289071592132</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4549710679346063</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.003935266002851822</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01211186835689744</v>
+        <v>-0.04464267559254911</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3412956006114056</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.001231119301361929</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01833247103554086</v>
+        <v>-0.06016384421724617</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1392454631375796</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>0.01460936924054813</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02331394357689807</v>
+        <v>-0.08774556630847027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3918722328884459</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.001609714450238563</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02374716924613215</v>
+        <v>-0.1359295073228849</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5220130676827623</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.01162285091048564</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07085697827066822</v>
+        <v>-0.143864936775756</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005390704816672743</v>
+        <v>0.0001597925209954752</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.1658755883865336</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.540294688654439e-07</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-151717365474.6187</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.3351716237558678</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-151717365474.6238</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.3351716237558523</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
